--- a/일괄등록/05_시리얼.xlsx
+++ b/일괄등록/05_시리얼.xlsx
@@ -658,111 +658,6 @@
     <t>&lt;p&gt;&lt;/p&gt;&lt;p align="center"&gt;&lt;IMG src="http://tongup1emd.cafe24.com/img/Image_detail/05_Cereal_35ea/5268_상세.jpg" style="width:860px;"&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t>포스트 고소한 아몬드 후레이크300g,스낵,동서식품,포스트</t>
-  </si>
-  <si>
-    <t>포스트 코코볼 300g,스낵,동서식품,포스트</t>
-  </si>
-  <si>
-    <t>포스트 콘푸라이트 300g,스낵,동서식품,포스트</t>
-  </si>
-  <si>
-    <t>포스트 건강한칠곡 450g,스낵,동서식품,포스트</t>
-  </si>
-  <si>
-    <t>포스트 맛있는 단호박 450g,스낵,동서식품,포스트</t>
-  </si>
-  <si>
-    <t>포스트 그래놀라 블루베리 500g,스낵,동서식품,포스트</t>
-  </si>
-  <si>
-    <t>포스트 그래놀라 크랜베리 570g,스낵,동서식품,포스트</t>
-  </si>
-  <si>
-    <t>포스트 초코후레이크 600g,스낵,동서식품,포스트</t>
-  </si>
-  <si>
-    <t>포스트 코코볼 우주탐험대 500g,스낵,동서식품,포스트</t>
-  </si>
-  <si>
-    <t>포스트 코코볼 정글탐험대 550g,스낵,동서식품,포스트</t>
-  </si>
-  <si>
-    <t>포스트 콘푸라이트 600g,스낵,동서식품,포스트</t>
-  </si>
-  <si>
-    <t>포스트 콘푸라이트 1/3라이트 슈거 530g,스낵,동서식품,포스트</t>
-  </si>
-  <si>
-    <t>포스트 콘후레이크 500g,스낵,동서식품,포스트</t>
-  </si>
-  <si>
-    <t>포스트 허니오즈 480g,스낵,동서식품,포스트</t>
-  </si>
-  <si>
-    <t>포스트 그래놀라 카카오호두 510g,스낵,동서식품,포스트</t>
-  </si>
-  <si>
-    <t>포스트 콘푸라이트 1100g,스낵,동서식품,포스트</t>
-  </si>
-  <si>
-    <t>포스트 코코볼1000g,스낵,동서식품,포스트</t>
-  </si>
-  <si>
-    <t>포스트 고소한 아몬드 후레이크1000g,스낵,동서식품,포스트</t>
-  </si>
-  <si>
-    <t>포스트 고소한현미 450g,스낵,동서식품,포스트</t>
-  </si>
-  <si>
-    <t>포스트 골든 그래놀라 후루츠 360g,스낵,동서식품,포스트</t>
-  </si>
-  <si>
-    <t>켈로그 아몬드 푸레이크(클럽팩)630g,스낵,농심,켈로그</t>
-  </si>
-  <si>
-    <t>켈로그 오곡 첵스초코(클럽팩)570g,스낵,농심,켈로그</t>
-  </si>
-  <si>
-    <t>켈로그 오곡 첵스초코 쿠키앤크림 340g,스낵,농심,켈로그</t>
-  </si>
-  <si>
-    <t>켈로그 후르트링 320g,스낵,농심,켈로그</t>
-  </si>
-  <si>
-    <t>켈로그 스페셜K(클럽팩)480g,스낵,농심,켈로그</t>
-  </si>
-  <si>
-    <t>켈로그 콘푸로스트 600g,스낵,농심,켈로그</t>
-  </si>
-  <si>
-    <t>켈로그 코코팝스(대)460g,스낵,농심,켈로그</t>
-  </si>
-  <si>
-    <t>켈로그 아몬드 푸레이크 320g,스낵,농심,켈로그</t>
-  </si>
-  <si>
-    <t>켈로그 콘푸로스트 라이트슈거 360g,스낵,농심,켈로그</t>
-  </si>
-  <si>
-    <t>켈로그 곡물이야기 현미 330g,스낵,농심,켈로그</t>
-  </si>
-  <si>
-    <t>켈로그 곡물이야기 오곡 330g,스낵,농심,켈로그</t>
-  </si>
-  <si>
-    <t>켈로그 오곡 첵스초코 340g,스낵,농심,켈로그</t>
-  </si>
-  <si>
-    <t>켈로그 스페셜K 270g,스낵,농심,켈로그</t>
-  </si>
-  <si>
-    <t>켈로그 오곡 첵스초코 스노우볼 230g,스낵,농심,켈로그</t>
-  </si>
-  <si>
-    <t>켈로그 콘푸로스트 330g,스낵,농심,켈로그</t>
-  </si>
-  <si>
     <t>포스트 고소한 아몬드 후레이크300g</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1315,6 +1210,111 @@
   </si>
   <si>
     <t>1|14|2500//15|28|5000//29|42|7500//43|56|10000//57|70|12500//71|84|15000</t>
+  </si>
+  <si>
+    <t>포스트 고소한 아몬드 후레이크300g,시리얼,동서식품,포스트</t>
+  </si>
+  <si>
+    <t>포스트 코코볼 300g,시리얼,동서식품,포스트</t>
+  </si>
+  <si>
+    <t>포스트 콘푸라이트 300g,시리얼,동서식품,포스트</t>
+  </si>
+  <si>
+    <t>포스트 건강한칠곡 450g,시리얼,동서식품,포스트</t>
+  </si>
+  <si>
+    <t>포스트 맛있는 단호박 450g,시리얼,동서식품,포스트</t>
+  </si>
+  <si>
+    <t>포스트 그래놀라 블루베리 500g,시리얼,동서식품,포스트</t>
+  </si>
+  <si>
+    <t>포스트 그래놀라 크랜베리 570g,시리얼,동서식품,포스트</t>
+  </si>
+  <si>
+    <t>포스트 초코후레이크 600g,시리얼,동서식품,포스트</t>
+  </si>
+  <si>
+    <t>포스트 코코볼 우주탐험대 500g,시리얼,동서식품,포스트</t>
+  </si>
+  <si>
+    <t>포스트 코코볼 정글탐험대 550g,시리얼,동서식품,포스트</t>
+  </si>
+  <si>
+    <t>포스트 콘푸라이트 600g,시리얼,동서식품,포스트</t>
+  </si>
+  <si>
+    <t>포스트 콘푸라이트 1/3라이트 슈거 530g,시리얼,동서식품,포스트</t>
+  </si>
+  <si>
+    <t>포스트 콘후레이크 500g,시리얼,동서식품,포스트</t>
+  </si>
+  <si>
+    <t>포스트 허니오즈 480g,시리얼,동서식품,포스트</t>
+  </si>
+  <si>
+    <t>포스트 그래놀라 카카오호두 510g,시리얼,동서식품,포스트</t>
+  </si>
+  <si>
+    <t>포스트 콘푸라이트 1100g,시리얼,동서식품,포스트</t>
+  </si>
+  <si>
+    <t>포스트 코코볼1000g,시리얼,동서식품,포스트</t>
+  </si>
+  <si>
+    <t>포스트 고소한 아몬드 후레이크1000g,시리얼,동서식품,포스트</t>
+  </si>
+  <si>
+    <t>포스트 고소한현미 450g,시리얼,동서식품,포스트</t>
+  </si>
+  <si>
+    <t>포스트 골든 그래놀라 후루츠 360g,시리얼,동서식품,포스트</t>
+  </si>
+  <si>
+    <t>켈로그 아몬드 푸레이크(클럽팩)630g,시리얼,농심,켈로그</t>
+  </si>
+  <si>
+    <t>켈로그 오곡 첵스초코(클럽팩)570g,시리얼,농심,켈로그</t>
+  </si>
+  <si>
+    <t>켈로그 오곡 첵스초코 쿠키앤크림 340g,시리얼,농심,켈로그</t>
+  </si>
+  <si>
+    <t>켈로그 후르트링 320g,시리얼,농심,켈로그</t>
+  </si>
+  <si>
+    <t>켈로그 스페셜K(클럽팩)480g,시리얼,농심,켈로그</t>
+  </si>
+  <si>
+    <t>켈로그 콘푸로스트 600g,시리얼,농심,켈로그</t>
+  </si>
+  <si>
+    <t>켈로그 코코팝스(대)460g,시리얼,농심,켈로그</t>
+  </si>
+  <si>
+    <t>켈로그 아몬드 푸레이크 320g,시리얼,농심,켈로그</t>
+  </si>
+  <si>
+    <t>켈로그 콘푸로스트 라이트슈거 360g,시리얼,농심,켈로그</t>
+  </si>
+  <si>
+    <t>켈로그 곡물이야기 현미 330g,시리얼,농심,켈로그</t>
+  </si>
+  <si>
+    <t>켈로그 곡물이야기 오곡 330g,시리얼,농심,켈로그</t>
+  </si>
+  <si>
+    <t>켈로그 오곡 첵스초코 340g,시리얼,농심,켈로그</t>
+  </si>
+  <si>
+    <t>켈로그 스페셜K 270g,시리얼,농심,켈로그</t>
+  </si>
+  <si>
+    <t>켈로그 오곡 첵스초코 스노우볼 230g,시리얼,농심,켈로그</t>
+  </si>
+  <si>
+    <t>켈로그 콘푸로스트 330g,시리얼,농심,켈로그</t>
   </si>
 </sst>
 </file>
@@ -2645,8 +2645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="BU1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="CF10" sqref="CF10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="Q2" s="11"/>
       <c r="R2" s="12" t="s">
-        <v>203</v>
+        <v>379</v>
       </c>
       <c r="S2" s="11" t="s">
         <v>87</v>
@@ -3019,16 +3019,16 @@
       <c r="AR2" s="11"/>
       <c r="AS2" s="11"/>
       <c r="AT2" s="20" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="AU2" s="12" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="AV2" s="12" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="AW2" s="12" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="AX2" s="37" t="s">
         <v>104</v>
@@ -3091,10 +3091,10 @@
         <v>95</v>
       </c>
       <c r="CF2" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="CG2" s="52" t="s">
         <v>203</v>
-      </c>
-      <c r="CG2" s="52" t="s">
-        <v>238</v>
       </c>
       <c r="CH2" s="11" t="s">
         <v>93</v>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="Q3" s="6"/>
       <c r="R3" s="1" t="s">
-        <v>204</v>
+        <v>380</v>
       </c>
       <c r="S3" s="6" t="s">
         <v>87</v>
@@ -3183,16 +3183,16 @@
       <c r="AR3" s="6"/>
       <c r="AS3" s="6"/>
       <c r="AT3" s="4" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="AX3" s="38" t="s">
         <v>104</v>
@@ -3255,10 +3255,10 @@
         <v>95</v>
       </c>
       <c r="CF3" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="CG3" s="53" t="s">
         <v>204</v>
-      </c>
-      <c r="CG3" s="53" t="s">
-        <v>239</v>
       </c>
       <c r="CH3" s="6" t="s">
         <v>93</v>
@@ -3303,7 +3303,7 @@
       </c>
       <c r="Q4" s="6"/>
       <c r="R4" s="1" t="s">
-        <v>205</v>
+        <v>381</v>
       </c>
       <c r="S4" s="6" t="s">
         <v>87</v>
@@ -3347,16 +3347,16 @@
       <c r="AR4" s="6"/>
       <c r="AS4" s="6"/>
       <c r="AT4" s="4" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="AW4" s="1" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="AX4" s="38" t="s">
         <v>104</v>
@@ -3419,10 +3419,10 @@
         <v>95</v>
       </c>
       <c r="CF4" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="CG4" s="53" t="s">
         <v>205</v>
-      </c>
-      <c r="CG4" s="53" t="s">
-        <v>240</v>
       </c>
       <c r="CH4" s="6" t="s">
         <v>93</v>
@@ -3467,7 +3467,7 @@
       </c>
       <c r="Q5" s="6"/>
       <c r="R5" s="1" t="s">
-        <v>206</v>
+        <v>382</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>87</v>
@@ -3511,16 +3511,16 @@
       <c r="AR5" s="6"/>
       <c r="AS5" s="6"/>
       <c r="AT5" s="4" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="AW5" s="1" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="AX5" s="38" t="s">
         <v>104</v>
@@ -3583,10 +3583,10 @@
         <v>95</v>
       </c>
       <c r="CF5" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="CG5" s="53" t="s">
         <v>206</v>
-      </c>
-      <c r="CG5" s="53" t="s">
-        <v>241</v>
       </c>
       <c r="CH5" s="6" t="s">
         <v>93</v>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="1" t="s">
-        <v>207</v>
+        <v>383</v>
       </c>
       <c r="S6" s="6" t="s">
         <v>87</v>
@@ -3675,16 +3675,16 @@
       <c r="AR6" s="6"/>
       <c r="AS6" s="6"/>
       <c r="AT6" s="4" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="AW6" s="1" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="AX6" s="38" t="s">
         <v>104</v>
@@ -3747,10 +3747,10 @@
         <v>95</v>
       </c>
       <c r="CF6" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="CG6" s="53" t="s">
         <v>207</v>
-      </c>
-      <c r="CG6" s="53" t="s">
-        <v>242</v>
       </c>
       <c r="CH6" s="6" t="s">
         <v>93</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="1" t="s">
-        <v>208</v>
+        <v>384</v>
       </c>
       <c r="S7" s="6" t="s">
         <v>87</v>
@@ -3839,16 +3839,16 @@
       <c r="AR7" s="6"/>
       <c r="AS7" s="6"/>
       <c r="AT7" s="4" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="AV7" s="1" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="AW7" s="1" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="AX7" s="38" t="s">
         <v>104</v>
@@ -3911,10 +3911,10 @@
         <v>95</v>
       </c>
       <c r="CF7" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="CG7" s="53" t="s">
         <v>208</v>
-      </c>
-      <c r="CG7" s="53" t="s">
-        <v>243</v>
       </c>
       <c r="CH7" s="6" t="s">
         <v>93</v>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="1" t="s">
-        <v>209</v>
+        <v>385</v>
       </c>
       <c r="S8" s="6" t="s">
         <v>87</v>
@@ -4003,16 +4003,16 @@
       <c r="AR8" s="6"/>
       <c r="AS8" s="6"/>
       <c r="AT8" s="4" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="AU8" s="1" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="AV8" s="1" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="AW8" s="1" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="AX8" s="38" t="s">
         <v>104</v>
@@ -4075,10 +4075,10 @@
         <v>95</v>
       </c>
       <c r="CF8" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="CG8" s="53" t="s">
         <v>209</v>
-      </c>
-      <c r="CG8" s="53" t="s">
-        <v>244</v>
       </c>
       <c r="CH8" s="6" t="s">
         <v>93</v>
@@ -4123,7 +4123,7 @@
       </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="1" t="s">
-        <v>210</v>
+        <v>386</v>
       </c>
       <c r="S9" s="6" t="s">
         <v>87</v>
@@ -4167,16 +4167,16 @@
       <c r="AR9" s="6"/>
       <c r="AS9" s="6"/>
       <c r="AT9" s="4" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="AU9" s="1" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="AV9" s="1" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="AW9" s="1" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="AX9" s="38" t="s">
         <v>104</v>
@@ -4217,7 +4217,7 @@
         <v>89</v>
       </c>
       <c r="BT9" s="1" t="s">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="BU9" s="6"/>
       <c r="BV9" s="6"/>
@@ -4239,10 +4239,10 @@
         <v>95</v>
       </c>
       <c r="CF9" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="CG9" s="53" t="s">
         <v>210</v>
-      </c>
-      <c r="CG9" s="53" t="s">
-        <v>245</v>
       </c>
       <c r="CH9" s="6" t="s">
         <v>93</v>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="1" t="s">
-        <v>211</v>
+        <v>387</v>
       </c>
       <c r="S10" s="6" t="s">
         <v>87</v>
@@ -4331,16 +4331,16 @@
       <c r="AR10" s="6"/>
       <c r="AS10" s="6"/>
       <c r="AT10" s="4" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="AU10" s="1" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="AV10" s="1" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="AW10" s="1" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="AX10" s="38" t="s">
         <v>104</v>
@@ -4403,10 +4403,10 @@
         <v>95</v>
       </c>
       <c r="CF10" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="CG10" s="53" t="s">
         <v>211</v>
-      </c>
-      <c r="CG10" s="53" t="s">
-        <v>246</v>
       </c>
       <c r="CH10" s="6" t="s">
         <v>93</v>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="1" t="s">
-        <v>212</v>
+        <v>388</v>
       </c>
       <c r="S11" s="6" t="s">
         <v>87</v>
@@ -4495,16 +4495,16 @@
       <c r="AR11" s="6"/>
       <c r="AS11" s="6"/>
       <c r="AT11" s="4" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="AU11" s="1" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="AV11" s="1" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="AW11" s="1" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="AX11" s="38" t="s">
         <v>104</v>
@@ -4567,10 +4567,10 @@
         <v>95</v>
       </c>
       <c r="CF11" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="CG11" s="53" t="s">
         <v>212</v>
-      </c>
-      <c r="CG11" s="53" t="s">
-        <v>247</v>
       </c>
       <c r="CH11" s="6" t="s">
         <v>93</v>
@@ -4615,7 +4615,7 @@
       </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="1" t="s">
-        <v>213</v>
+        <v>389</v>
       </c>
       <c r="S12" s="6" t="s">
         <v>87</v>
@@ -4659,16 +4659,16 @@
       <c r="AR12" s="6"/>
       <c r="AS12" s="6"/>
       <c r="AT12" s="4" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="AU12" s="1" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="AV12" s="1" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="AW12" s="1" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
       <c r="AX12" s="38" t="s">
         <v>104</v>
@@ -4731,10 +4731,10 @@
         <v>95</v>
       </c>
       <c r="CF12" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="CG12" s="53" t="s">
         <v>213</v>
-      </c>
-      <c r="CG12" s="53" t="s">
-        <v>248</v>
       </c>
       <c r="CH12" s="6" t="s">
         <v>93</v>
@@ -4779,7 +4779,7 @@
       </c>
       <c r="Q13" s="6"/>
       <c r="R13" s="1" t="s">
-        <v>214</v>
+        <v>390</v>
       </c>
       <c r="S13" s="6" t="s">
         <v>87</v>
@@ -4823,16 +4823,16 @@
       <c r="AR13" s="6"/>
       <c r="AS13" s="6"/>
       <c r="AT13" s="4" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="AU13" s="1" t="s">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="AV13" s="1" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="AW13" s="1" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="AX13" s="38" t="s">
         <v>104</v>
@@ -4895,10 +4895,10 @@
         <v>95</v>
       </c>
       <c r="CF13" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="CG13" s="53" t="s">
         <v>214</v>
-      </c>
-      <c r="CG13" s="53" t="s">
-        <v>249</v>
       </c>
       <c r="CH13" s="6" t="s">
         <v>93</v>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="Q14" s="6"/>
       <c r="R14" s="1" t="s">
-        <v>215</v>
+        <v>391</v>
       </c>
       <c r="S14" s="6" t="s">
         <v>87</v>
@@ -4987,16 +4987,16 @@
       <c r="AR14" s="6"/>
       <c r="AS14" s="6"/>
       <c r="AT14" s="4" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="AU14" s="1" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="AV14" s="1" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="AW14" s="1" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="AX14" s="38" t="s">
         <v>104</v>
@@ -5059,10 +5059,10 @@
         <v>95</v>
       </c>
       <c r="CF14" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="CG14" s="53" t="s">
         <v>215</v>
-      </c>
-      <c r="CG14" s="53" t="s">
-        <v>250</v>
       </c>
       <c r="CH14" s="6" t="s">
         <v>93</v>
@@ -5107,7 +5107,7 @@
       </c>
       <c r="Q15" s="6"/>
       <c r="R15" s="1" t="s">
-        <v>216</v>
+        <v>392</v>
       </c>
       <c r="S15" s="6" t="s">
         <v>87</v>
@@ -5151,16 +5151,16 @@
       <c r="AR15" s="6"/>
       <c r="AS15" s="6"/>
       <c r="AT15" s="4" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="AU15" s="1" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="AV15" s="1" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="AW15" s="1" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="AX15" s="38" t="s">
         <v>104</v>
@@ -5223,10 +5223,10 @@
         <v>95</v>
       </c>
       <c r="CF15" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="CG15" s="53" t="s">
         <v>216</v>
-      </c>
-      <c r="CG15" s="53" t="s">
-        <v>251</v>
       </c>
       <c r="CH15" s="6" t="s">
         <v>93</v>
@@ -5271,7 +5271,7 @@
       </c>
       <c r="Q16" s="6"/>
       <c r="R16" s="1" t="s">
-        <v>217</v>
+        <v>393</v>
       </c>
       <c r="S16" s="6" t="s">
         <v>87</v>
@@ -5315,16 +5315,16 @@
       <c r="AR16" s="6"/>
       <c r="AS16" s="6"/>
       <c r="AT16" s="4" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="AU16" s="1" t="s">
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="AV16" s="1" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="AW16" s="1" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="AX16" s="38" t="s">
         <v>104</v>
@@ -5387,10 +5387,10 @@
         <v>95</v>
       </c>
       <c r="CF16" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="CG16" s="53" t="s">
         <v>217</v>
-      </c>
-      <c r="CG16" s="53" t="s">
-        <v>252</v>
       </c>
       <c r="CH16" s="6" t="s">
         <v>93</v>
@@ -5435,7 +5435,7 @@
       </c>
       <c r="Q17" s="6"/>
       <c r="R17" s="1" t="s">
-        <v>218</v>
+        <v>394</v>
       </c>
       <c r="S17" s="6" t="s">
         <v>87</v>
@@ -5479,16 +5479,16 @@
       <c r="AR17" s="6"/>
       <c r="AS17" s="6"/>
       <c r="AT17" s="4" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="AU17" s="1" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="AV17" s="1" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="AW17" s="1" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
       <c r="AX17" s="38" t="s">
         <v>104</v>
@@ -5551,10 +5551,10 @@
         <v>95</v>
       </c>
       <c r="CF17" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="CG17" s="53" t="s">
         <v>218</v>
-      </c>
-      <c r="CG17" s="53" t="s">
-        <v>253</v>
       </c>
       <c r="CH17" s="6" t="s">
         <v>93</v>
@@ -5599,7 +5599,7 @@
       </c>
       <c r="Q18" s="6"/>
       <c r="R18" s="1" t="s">
-        <v>219</v>
+        <v>395</v>
       </c>
       <c r="S18" s="6" t="s">
         <v>87</v>
@@ -5643,16 +5643,16 @@
       <c r="AR18" s="6"/>
       <c r="AS18" s="6"/>
       <c r="AT18" s="4" t="s">
-        <v>337</v>
+        <v>302</v>
       </c>
       <c r="AU18" s="1" t="s">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="AV18" s="1" t="s">
-        <v>339</v>
+        <v>304</v>
       </c>
       <c r="AW18" s="1" t="s">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="AX18" s="38" t="s">
         <v>104</v>
@@ -5715,10 +5715,10 @@
         <v>95</v>
       </c>
       <c r="CF18" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="CG18" s="53" t="s">
         <v>219</v>
-      </c>
-      <c r="CG18" s="53" t="s">
-        <v>254</v>
       </c>
       <c r="CH18" s="6" t="s">
         <v>93</v>
@@ -5763,7 +5763,7 @@
       </c>
       <c r="Q19" s="6"/>
       <c r="R19" s="1" t="s">
-        <v>220</v>
+        <v>396</v>
       </c>
       <c r="S19" s="6" t="s">
         <v>87</v>
@@ -5807,16 +5807,16 @@
       <c r="AR19" s="6"/>
       <c r="AS19" s="6"/>
       <c r="AT19" s="4" t="s">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="AU19" s="1" t="s">
-        <v>342</v>
+        <v>307</v>
       </c>
       <c r="AV19" s="1" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="AW19" s="1" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="AX19" s="38" t="s">
         <v>104</v>
@@ -5879,10 +5879,10 @@
         <v>95</v>
       </c>
       <c r="CF19" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="CG19" s="53" t="s">
         <v>220</v>
-      </c>
-      <c r="CG19" s="53" t="s">
-        <v>255</v>
       </c>
       <c r="CH19" s="6" t="s">
         <v>93</v>
@@ -5927,7 +5927,7 @@
       </c>
       <c r="Q20" s="6"/>
       <c r="R20" s="1" t="s">
-        <v>221</v>
+        <v>397</v>
       </c>
       <c r="S20" s="6" t="s">
         <v>87</v>
@@ -5971,16 +5971,16 @@
       <c r="AR20" s="6"/>
       <c r="AS20" s="6"/>
       <c r="AT20" s="4" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="AU20" s="1" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="AV20" s="1" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="AW20" s="1" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="AX20" s="38" t="s">
         <v>104</v>
@@ -6043,10 +6043,10 @@
         <v>95</v>
       </c>
       <c r="CF20" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="CG20" s="53" t="s">
         <v>221</v>
-      </c>
-      <c r="CG20" s="53" t="s">
-        <v>256</v>
       </c>
       <c r="CH20" s="6" t="s">
         <v>93</v>
@@ -6091,7 +6091,7 @@
       </c>
       <c r="Q21" s="16"/>
       <c r="R21" s="17" t="s">
-        <v>222</v>
+        <v>398</v>
       </c>
       <c r="S21" s="16" t="s">
         <v>87</v>
@@ -6135,16 +6135,16 @@
       <c r="AR21" s="16"/>
       <c r="AS21" s="16"/>
       <c r="AT21" s="5" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="AU21" s="17" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="AV21" s="17" t="s">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="AW21" s="17" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="AX21" s="39" t="s">
         <v>104</v>
@@ -6207,10 +6207,10 @@
         <v>95</v>
       </c>
       <c r="CF21" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="CG21" s="54" t="s">
         <v>222</v>
-      </c>
-      <c r="CG21" s="54" t="s">
-        <v>257</v>
       </c>
       <c r="CH21" s="16" t="s">
         <v>93</v>
@@ -6255,7 +6255,7 @@
       </c>
       <c r="Q22" s="11"/>
       <c r="R22" s="12" t="s">
-        <v>223</v>
+        <v>399</v>
       </c>
       <c r="S22" s="11" t="s">
         <v>87</v>
@@ -6299,16 +6299,16 @@
       <c r="AR22" s="11"/>
       <c r="AS22" s="11"/>
       <c r="AT22" s="20" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="AU22" s="12" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="AV22" s="12" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
       <c r="AW22" s="12" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="AX22" s="37" t="s">
         <v>97</v>
@@ -6371,10 +6371,10 @@
         <v>95</v>
       </c>
       <c r="CF22" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="CG22" s="36" t="s">
         <v>223</v>
-      </c>
-      <c r="CG22" s="36" t="s">
-        <v>258</v>
       </c>
       <c r="CH22" s="11" t="s">
         <v>93</v>
@@ -6419,7 +6419,7 @@
       </c>
       <c r="Q23" s="6"/>
       <c r="R23" s="1" t="s">
-        <v>224</v>
+        <v>400</v>
       </c>
       <c r="S23" s="6" t="s">
         <v>87</v>
@@ -6463,16 +6463,16 @@
       <c r="AR23" s="6"/>
       <c r="AS23" s="6"/>
       <c r="AT23" s="4" t="s">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="AU23" s="1" t="s">
-        <v>358</v>
+        <v>323</v>
       </c>
       <c r="AV23" s="1" t="s">
-        <v>359</v>
+        <v>324</v>
       </c>
       <c r="AW23" s="1" t="s">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="AX23" s="38" t="s">
         <v>97</v>
@@ -6535,10 +6535,10 @@
         <v>95</v>
       </c>
       <c r="CF23" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="CG23" s="26" t="s">
         <v>224</v>
-      </c>
-      <c r="CG23" s="26" t="s">
-        <v>259</v>
       </c>
       <c r="CH23" s="6" t="s">
         <v>93</v>
@@ -6583,7 +6583,7 @@
       </c>
       <c r="Q24" s="6"/>
       <c r="R24" s="1" t="s">
-        <v>225</v>
+        <v>401</v>
       </c>
       <c r="S24" s="6" t="s">
         <v>87</v>
@@ -6627,16 +6627,16 @@
       <c r="AR24" s="6"/>
       <c r="AS24" s="6"/>
       <c r="AT24" s="4" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="AU24" s="1" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="AV24" s="1" t="s">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="AW24" s="1" t="s">
-        <v>364</v>
+        <v>329</v>
       </c>
       <c r="AX24" s="38" t="s">
         <v>97</v>
@@ -6699,10 +6699,10 @@
         <v>95</v>
       </c>
       <c r="CF24" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="CG24" s="26" t="s">
         <v>225</v>
-      </c>
-      <c r="CG24" s="26" t="s">
-        <v>260</v>
       </c>
       <c r="CH24" s="6" t="s">
         <v>93</v>
@@ -6747,7 +6747,7 @@
       </c>
       <c r="Q25" s="6"/>
       <c r="R25" s="1" t="s">
-        <v>226</v>
+        <v>402</v>
       </c>
       <c r="S25" s="6" t="s">
         <v>87</v>
@@ -6791,16 +6791,16 @@
       <c r="AR25" s="6"/>
       <c r="AS25" s="6"/>
       <c r="AT25" s="4" t="s">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="AU25" s="1" t="s">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="AV25" s="1" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="AW25" s="1" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="AX25" s="38" t="s">
         <v>97</v>
@@ -6863,10 +6863,10 @@
         <v>95</v>
       </c>
       <c r="CF25" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="CG25" s="53" t="s">
         <v>226</v>
-      </c>
-      <c r="CG25" s="53" t="s">
-        <v>261</v>
       </c>
       <c r="CH25" s="6" t="s">
         <v>93</v>
@@ -6911,7 +6911,7 @@
       </c>
       <c r="Q26" s="6"/>
       <c r="R26" s="1" t="s">
-        <v>227</v>
+        <v>403</v>
       </c>
       <c r="S26" s="6" t="s">
         <v>87</v>
@@ -6955,16 +6955,16 @@
       <c r="AR26" s="6"/>
       <c r="AS26" s="6"/>
       <c r="AT26" s="4" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="AU26" s="1" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="AV26" s="1" t="s">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="AW26" s="1" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="AX26" s="38" t="s">
         <v>97</v>
@@ -7027,10 +7027,10 @@
         <v>95</v>
       </c>
       <c r="CF26" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="CG26" s="26" t="s">
         <v>227</v>
-      </c>
-      <c r="CG26" s="26" t="s">
-        <v>262</v>
       </c>
       <c r="CH26" s="6" t="s">
         <v>93</v>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="Q27" s="6"/>
       <c r="R27" s="1" t="s">
-        <v>228</v>
+        <v>404</v>
       </c>
       <c r="S27" s="6" t="s">
         <v>87</v>
@@ -7119,16 +7119,16 @@
       <c r="AR27" s="6"/>
       <c r="AS27" s="6"/>
       <c r="AT27" s="4" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="AU27" s="1" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
       <c r="AV27" s="1" t="s">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="AW27" s="1" t="s">
-        <v>376</v>
+        <v>341</v>
       </c>
       <c r="AX27" s="38" t="s">
         <v>97</v>
@@ -7191,10 +7191,10 @@
         <v>95</v>
       </c>
       <c r="CF27" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="CG27" s="53" t="s">
         <v>228</v>
-      </c>
-      <c r="CG27" s="53" t="s">
-        <v>263</v>
       </c>
       <c r="CH27" s="6" t="s">
         <v>93</v>
@@ -7239,7 +7239,7 @@
       </c>
       <c r="Q28" s="6"/>
       <c r="R28" s="1" t="s">
-        <v>229</v>
+        <v>405</v>
       </c>
       <c r="S28" s="6" t="s">
         <v>87</v>
@@ -7283,16 +7283,16 @@
       <c r="AR28" s="6"/>
       <c r="AS28" s="6"/>
       <c r="AT28" s="4" t="s">
-        <v>377</v>
+        <v>342</v>
       </c>
       <c r="AU28" s="1" t="s">
-        <v>378</v>
+        <v>343</v>
       </c>
       <c r="AV28" s="1" t="s">
-        <v>379</v>
+        <v>344</v>
       </c>
       <c r="AW28" s="1" t="s">
-        <v>380</v>
+        <v>345</v>
       </c>
       <c r="AX28" s="38" t="s">
         <v>97</v>
@@ -7355,10 +7355,10 @@
         <v>95</v>
       </c>
       <c r="CF28" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="CG28" s="26" t="s">
         <v>229</v>
-      </c>
-      <c r="CG28" s="26" t="s">
-        <v>264</v>
       </c>
       <c r="CH28" s="6" t="s">
         <v>93</v>
@@ -7403,7 +7403,7 @@
       </c>
       <c r="Q29" s="6"/>
       <c r="R29" s="1" t="s">
-        <v>230</v>
+        <v>406</v>
       </c>
       <c r="S29" s="6" t="s">
         <v>87</v>
@@ -7447,16 +7447,16 @@
       <c r="AR29" s="6"/>
       <c r="AS29" s="6"/>
       <c r="AT29" s="4" t="s">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="AU29" s="1" t="s">
-        <v>382</v>
+        <v>347</v>
       </c>
       <c r="AV29" s="1" t="s">
-        <v>383</v>
+        <v>348</v>
       </c>
       <c r="AW29" s="1" t="s">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="AX29" s="38" t="s">
         <v>97</v>
@@ -7519,10 +7519,10 @@
         <v>95</v>
       </c>
       <c r="CF29" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="CG29" s="53" t="s">
         <v>230</v>
-      </c>
-      <c r="CG29" s="53" t="s">
-        <v>265</v>
       </c>
       <c r="CH29" s="6" t="s">
         <v>93</v>
@@ -7567,7 +7567,7 @@
       </c>
       <c r="Q30" s="6"/>
       <c r="R30" s="1" t="s">
-        <v>231</v>
+        <v>407</v>
       </c>
       <c r="S30" s="6" t="s">
         <v>87</v>
@@ -7611,16 +7611,16 @@
       <c r="AR30" s="6"/>
       <c r="AS30" s="6"/>
       <c r="AT30" s="4" t="s">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="AU30" s="1" t="s">
-        <v>386</v>
+        <v>351</v>
       </c>
       <c r="AV30" s="1" t="s">
-        <v>387</v>
+        <v>352</v>
       </c>
       <c r="AW30" s="1" t="s">
-        <v>388</v>
+        <v>353</v>
       </c>
       <c r="AX30" s="38" t="s">
         <v>97</v>
@@ -7683,10 +7683,10 @@
         <v>95</v>
       </c>
       <c r="CF30" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="CG30" s="53" t="s">
         <v>231</v>
-      </c>
-      <c r="CG30" s="53" t="s">
-        <v>266</v>
       </c>
       <c r="CH30" s="6" t="s">
         <v>93</v>
@@ -7731,7 +7731,7 @@
       </c>
       <c r="Q31" s="6"/>
       <c r="R31" s="1" t="s">
-        <v>232</v>
+        <v>408</v>
       </c>
       <c r="S31" s="6" t="s">
         <v>87</v>
@@ -7775,16 +7775,16 @@
       <c r="AR31" s="6"/>
       <c r="AS31" s="6"/>
       <c r="AT31" s="4" t="s">
-        <v>389</v>
+        <v>354</v>
       </c>
       <c r="AU31" s="1" t="s">
-        <v>390</v>
+        <v>355</v>
       </c>
       <c r="AV31" s="1" t="s">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="AW31" s="1" t="s">
-        <v>392</v>
+        <v>357</v>
       </c>
       <c r="AX31" s="38" t="s">
         <v>97</v>
@@ -7847,10 +7847,10 @@
         <v>95</v>
       </c>
       <c r="CF31" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="CG31" s="53" t="s">
         <v>232</v>
-      </c>
-      <c r="CG31" s="53" t="s">
-        <v>267</v>
       </c>
       <c r="CH31" s="6" t="s">
         <v>93</v>
@@ -7895,7 +7895,7 @@
       </c>
       <c r="Q32" s="6"/>
       <c r="R32" s="1" t="s">
-        <v>233</v>
+        <v>409</v>
       </c>
       <c r="S32" s="6" t="s">
         <v>87</v>
@@ -7939,16 +7939,16 @@
       <c r="AR32" s="6"/>
       <c r="AS32" s="6"/>
       <c r="AT32" s="4" t="s">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="AU32" s="1" t="s">
-        <v>394</v>
+        <v>359</v>
       </c>
       <c r="AV32" s="1" t="s">
-        <v>395</v>
+        <v>360</v>
       </c>
       <c r="AW32" s="1" t="s">
-        <v>396</v>
+        <v>361</v>
       </c>
       <c r="AX32" s="38" t="s">
         <v>97</v>
@@ -8011,10 +8011,10 @@
         <v>95</v>
       </c>
       <c r="CF32" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="CG32" s="26" t="s">
         <v>233</v>
-      </c>
-      <c r="CG32" s="26" t="s">
-        <v>268</v>
       </c>
       <c r="CH32" s="6" t="s">
         <v>93</v>
@@ -8059,7 +8059,7 @@
       </c>
       <c r="Q33" s="6"/>
       <c r="R33" s="1" t="s">
-        <v>234</v>
+        <v>410</v>
       </c>
       <c r="S33" s="6" t="s">
         <v>87</v>
@@ -8103,16 +8103,16 @@
       <c r="AR33" s="6"/>
       <c r="AS33" s="6"/>
       <c r="AT33" s="4" t="s">
-        <v>397</v>
+        <v>362</v>
       </c>
       <c r="AU33" s="1" t="s">
-        <v>398</v>
+        <v>363</v>
       </c>
       <c r="AV33" s="1" t="s">
-        <v>399</v>
+        <v>364</v>
       </c>
       <c r="AW33" s="1" t="s">
-        <v>400</v>
+        <v>365</v>
       </c>
       <c r="AX33" s="38" t="s">
         <v>97</v>
@@ -8175,10 +8175,10 @@
         <v>95</v>
       </c>
       <c r="CF33" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="CG33" s="53" t="s">
         <v>234</v>
-      </c>
-      <c r="CG33" s="53" t="s">
-        <v>269</v>
       </c>
       <c r="CH33" s="6" t="s">
         <v>93</v>
@@ -8223,7 +8223,7 @@
       </c>
       <c r="Q34" s="6"/>
       <c r="R34" s="1" t="s">
-        <v>235</v>
+        <v>411</v>
       </c>
       <c r="S34" s="6" t="s">
         <v>87</v>
@@ -8267,16 +8267,16 @@
       <c r="AR34" s="6"/>
       <c r="AS34" s="6"/>
       <c r="AT34" s="4" t="s">
-        <v>401</v>
+        <v>366</v>
       </c>
       <c r="AU34" s="1" t="s">
-        <v>402</v>
+        <v>367</v>
       </c>
       <c r="AV34" s="1" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="AW34" s="1" t="s">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="AX34" s="38" t="s">
         <v>97</v>
@@ -8339,10 +8339,10 @@
         <v>95</v>
       </c>
       <c r="CF34" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="CG34" s="26" t="s">
         <v>235</v>
-      </c>
-      <c r="CG34" s="26" t="s">
-        <v>270</v>
       </c>
       <c r="CH34" s="6" t="s">
         <v>93</v>
@@ -8387,7 +8387,7 @@
       </c>
       <c r="Q35" s="6"/>
       <c r="R35" s="1" t="s">
-        <v>236</v>
+        <v>412</v>
       </c>
       <c r="S35" s="6" t="s">
         <v>87</v>
@@ -8431,16 +8431,16 @@
       <c r="AR35" s="6"/>
       <c r="AS35" s="6"/>
       <c r="AT35" s="4" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="AU35" s="1" t="s">
-        <v>406</v>
+        <v>371</v>
       </c>
       <c r="AV35" s="1" t="s">
-        <v>407</v>
+        <v>372</v>
       </c>
       <c r="AW35" s="1" t="s">
-        <v>408</v>
+        <v>373</v>
       </c>
       <c r="AX35" s="38" t="s">
         <v>97</v>
@@ -8503,10 +8503,10 @@
         <v>95</v>
       </c>
       <c r="CF35" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="CG35" s="26" t="s">
         <v>236</v>
-      </c>
-      <c r="CG35" s="26" t="s">
-        <v>271</v>
       </c>
       <c r="CH35" s="6" t="s">
         <v>93</v>
@@ -8551,7 +8551,7 @@
       </c>
       <c r="Q36" s="16"/>
       <c r="R36" s="17" t="s">
-        <v>237</v>
+        <v>413</v>
       </c>
       <c r="S36" s="16" t="s">
         <v>87</v>
@@ -8595,16 +8595,16 @@
       <c r="AR36" s="16"/>
       <c r="AS36" s="16"/>
       <c r="AT36" s="5" t="s">
-        <v>409</v>
+        <v>374</v>
       </c>
       <c r="AU36" s="17" t="s">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="AV36" s="17" t="s">
-        <v>411</v>
+        <v>376</v>
       </c>
       <c r="AW36" s="17" t="s">
-        <v>412</v>
+        <v>377</v>
       </c>
       <c r="AX36" s="39" t="s">
         <v>97</v>
@@ -8667,10 +8667,10 @@
         <v>95</v>
       </c>
       <c r="CF36" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="CG36" s="54" t="s">
         <v>237</v>
-      </c>
-      <c r="CG36" s="54" t="s">
-        <v>272</v>
       </c>
       <c r="CH36" s="16" t="s">
         <v>93</v>
